--- a/result/metrics_values/SuperBoot.xlsx
+++ b/result/metrics_values/SuperBoot.xlsx
@@ -519,7 +519,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.0013686366384977075</t>
+          <t>0.001368636638497707</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.0035827074379655662</t>
+          <t>0.0035827074379655667</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.000972138508536026</t>
+          <t>0.0009802525962150544</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
